--- a/CETC/ExcelFile/dtGridShowHistoryQuery.xlsx
+++ b/CETC/ExcelFile/dtGridShowHistoryQuery.xlsx
@@ -16,125 +16,139 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="30">
-  <si>
-    <t>2号车</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2号车</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9号车</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9号车</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>烟支空头检测</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>烟库乱烟检测</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>散包视觉检测</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小包外观检测</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三号轮铝箔纸检测</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>烟库乱烟检测</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>模盒缺支检测</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>烟包外观复检</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>散包光电检测</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>烟库乱烟检测</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>故障2-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>故障2-11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>故障2-8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>故障2-5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>故障9-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>故障9-3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>故障9-9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>故障9-12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>故障9-12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>故障2-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>故障故障故障故障</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="35">
   <si>
     <t>NO</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>LineName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DeviceName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FaultName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>FaultTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LineNO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DeviceNO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FaultNO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>003</t>
+  </si>
+  <si>
+    <t>004</t>
+  </si>
+  <si>
+    <t>009</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>010</t>
+  </si>
+  <si>
+    <t>011</t>
+  </si>
+  <si>
+    <t>012</t>
+  </si>
+  <si>
+    <t>013</t>
+  </si>
+  <si>
+    <t>002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>103</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>007</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -181,9 +195,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -485,167 +500,168 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.25" customWidth="1"/>
-    <col min="3" max="3" width="17.75" customWidth="1"/>
-    <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="1" max="1" width="11.25" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9" style="2"/>
+    <col min="3" max="3" width="17.75" style="2" customWidth="1"/>
+    <col min="4" max="4" width="18" style="2" customWidth="1"/>
     <col min="5" max="5" width="31.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>24</v>
+      <c r="D2" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="E2" s="1">
         <v>44440.354571759257</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D3" t="s">
-        <v>14</v>
+      <c r="C3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="E3" s="1">
         <v>44441.41815972222</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
+      <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="E4" s="1">
         <v>44442.864814814813</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" t="s">
-        <v>16</v>
+      <c r="B5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="E5" s="1">
         <v>44443.631122685183</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" t="s">
-        <v>17</v>
+      <c r="B6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="E6" s="1">
         <v>44444.481203703705</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7">
+      <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" t="s">
-        <v>18</v>
+      <c r="B7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="E7" s="1">
         <v>44445.565416666665</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8">
+      <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" t="s">
-        <v>19</v>
+      <c r="B8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="E8" s="1">
         <v>44446.511967592596</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9">
+      <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="B9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E9" s="1">
@@ -653,16 +669,16 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A10">
+      <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="B10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E10" s="1">
@@ -670,16 +686,16 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A11">
+      <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="B11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E11" s="1">
@@ -687,173 +703,54 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A12">
+      <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" t="s">
-        <v>23</v>
+      <c r="B12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="E12" s="1">
         <v>44440.354571759257</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A13">
+      <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" t="s">
-        <v>14</v>
+      <c r="B13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="E13" s="1">
         <v>44441.41815972222</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A14">
+      <c r="A14" s="2">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="B14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>15</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="E14" s="1">
         <v>44442.864814814813</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C15" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15" s="1">
-        <v>44443.631122685183</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16" s="1">
-        <v>44444.481203703705</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>2</v>
-      </c>
-      <c r="C17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17" s="1">
-        <v>44445.565416666665</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>2</v>
-      </c>
-      <c r="C18" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" t="s">
-        <v>19</v>
-      </c>
-      <c r="E18" s="1">
-        <v>44446.511967592596</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>2</v>
-      </c>
-      <c r="C19" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" t="s">
-        <v>20</v>
-      </c>
-      <c r="E19" s="1">
-        <v>44447.718472222223</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>2</v>
-      </c>
-      <c r="C20" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" t="s">
-        <v>21</v>
-      </c>
-      <c r="E20" s="1">
-        <v>44448.383715277778</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>2</v>
-      </c>
-      <c r="C21" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21" t="s">
-        <v>22</v>
-      </c>
-      <c r="E21" s="1">
-        <v>44449.800173611111</v>
       </c>
     </row>
   </sheetData>
